--- a/data/pca/factorExposure/factorExposure_2016-09-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-09-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +711,76 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.008003290511345372</v>
+        <v>-0.01382581418334057</v>
       </c>
       <c r="C2">
-        <v>0.05038796412406268</v>
+        <v>0.04263923333662904</v>
       </c>
       <c r="D2">
-        <v>0.02260608029208227</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.06588076596244159</v>
+      </c>
+      <c r="E2">
+        <v>0.05377011679816562</v>
+      </c>
+      <c r="F2">
+        <v>-0.08585961135378338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>0.05776523625198005</v>
+        <v>-0.03252404381562813</v>
       </c>
       <c r="C3">
-        <v>0.09894359967096368</v>
+        <v>0.07929186948824186</v>
       </c>
       <c r="D3">
-        <v>0.05695848731412491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09693268551003013</v>
+      </c>
+      <c r="E3">
+        <v>0.06444822128197721</v>
+      </c>
+      <c r="F3">
+        <v>-0.01696284973804496</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.06437413956531876</v>
+        <v>-0.05683842376297066</v>
       </c>
       <c r="C4">
-        <v>0.05680945243101956</v>
+        <v>0.06504117455228797</v>
       </c>
       <c r="D4">
-        <v>0.01819525470147191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06037538837184156</v>
+      </c>
+      <c r="E4">
+        <v>0.04957263939285854</v>
+      </c>
+      <c r="F4">
+        <v>-0.08193550073850381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +791,236 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.0301372003709332</v>
+        <v>-0.03273646758965974</v>
       </c>
       <c r="C6">
-        <v>0.04119393082621815</v>
+        <v>0.03636225199276983</v>
       </c>
       <c r="D6">
-        <v>0.02740693459945417</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06939837183635146</v>
+      </c>
+      <c r="E6">
+        <v>0.05945320386115339</v>
+      </c>
+      <c r="F6">
+        <v>-0.07130281708204957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01685366664558784</v>
+        <v>-0.02032447569585348</v>
       </c>
       <c r="C7">
-        <v>0.03986093872021705</v>
+        <v>0.03665046367592064</v>
       </c>
       <c r="D7">
-        <v>-0.005107793456052201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04006843872750339</v>
+      </c>
+      <c r="E7">
+        <v>0.03387025201001811</v>
+      </c>
+      <c r="F7">
+        <v>-0.108025523874873</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.003106770866248569</v>
+        <v>-0.003963117084780953</v>
       </c>
       <c r="C8">
-        <v>0.02183855140975906</v>
+        <v>0.02770359802034144</v>
       </c>
       <c r="D8">
-        <v>0.03063586408552683</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03518340350334258</v>
+      </c>
+      <c r="E8">
+        <v>0.04117195847272073</v>
+      </c>
+      <c r="F8">
+        <v>-0.0522916501237326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.03103167504926678</v>
+        <v>-0.03607395059371542</v>
       </c>
       <c r="C9">
-        <v>0.04146009877063046</v>
+        <v>0.05119842972731531</v>
       </c>
       <c r="D9">
-        <v>0.01331528864610892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.04587374560952766</v>
+      </c>
+      <c r="E9">
+        <v>0.04289755160262902</v>
+      </c>
+      <c r="F9">
+        <v>-0.08953169947850512</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.06857653112299281</v>
+        <v>-0.1007343008434938</v>
       </c>
       <c r="C10">
-        <v>-0.1926615714519802</v>
+        <v>-0.1905072230156499</v>
       </c>
       <c r="D10">
-        <v>0.007097719347721274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0001066216517015998</v>
+      </c>
+      <c r="E10">
+        <v>0.04534711930757115</v>
+      </c>
+      <c r="F10">
+        <v>-0.0378042062297001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.04004870066937589</v>
+        <v>-0.03547763788512523</v>
       </c>
       <c r="C11">
-        <v>0.05319928879795379</v>
+        <v>0.05186746340225327</v>
       </c>
       <c r="D11">
-        <v>-0.001672412799093483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.03403311505505976</v>
+      </c>
+      <c r="E11">
+        <v>0.005803186172523917</v>
+      </c>
+      <c r="F11">
+        <v>-0.06452132057280979</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.03495373485618798</v>
+        <v>-0.03622016390671051</v>
       </c>
       <c r="C12">
-        <v>0.04476212086559687</v>
+        <v>0.04763733203922059</v>
       </c>
       <c r="D12">
-        <v>-0.0003504203846344143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.02620007691143704</v>
+      </c>
+      <c r="E12">
+        <v>0.01548301175031075</v>
+      </c>
+      <c r="F12">
+        <v>-0.06636083957589339</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.01021498126571311</v>
+        <v>-0.01194553137044952</v>
       </c>
       <c r="C13">
-        <v>0.04209840902539854</v>
+        <v>0.04093002546304783</v>
       </c>
       <c r="D13">
-        <v>0.01463849848532751</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06602358916740055</v>
+      </c>
+      <c r="E13">
+        <v>0.06458879288499789</v>
+      </c>
+      <c r="F13">
+        <v>-0.1141763281874692</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.004094058269026753</v>
+        <v>-0.005430205007203715</v>
       </c>
       <c r="C14">
-        <v>0.03380020366751514</v>
+        <v>0.03030982888326253</v>
       </c>
       <c r="D14">
-        <v>-0.01834296435120557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.03005336081678135</v>
+      </c>
+      <c r="E14">
+        <v>0.02869783578036386</v>
+      </c>
+      <c r="F14">
+        <v>-0.09730391351252873</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001376850454742192</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.002730447123748444</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.003425637187744862</v>
+      </c>
+      <c r="E15">
+        <v>-1.30625901742582e-05</v>
+      </c>
+      <c r="F15">
+        <v>-0.002517910971226908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.03431025768108523</v>
+        <v>-0.03302850910795703</v>
       </c>
       <c r="C16">
-        <v>0.04155314136514313</v>
+        <v>0.04612341895779295</v>
       </c>
       <c r="D16">
-        <v>0.003799690043873154</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02924148326650865</v>
+      </c>
+      <c r="E16">
+        <v>0.02018281539380594</v>
+      </c>
+      <c r="F16">
+        <v>-0.06835275549546421</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1031,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1051,176 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>0.02316892407030742</v>
+        <v>-0.01624810122682204</v>
       </c>
       <c r="C19">
-        <v>0.05949325450514439</v>
+        <v>0.0502087490721676</v>
       </c>
       <c r="D19">
-        <v>0.06798709609369007</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1010464476368959</v>
+      </c>
+      <c r="E19">
+        <v>0.08178994733535884</v>
+      </c>
+      <c r="F19">
+        <v>-0.09260266997536142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.01359826061935017</v>
+        <v>-0.01329851054223419</v>
       </c>
       <c r="C20">
-        <v>0.04455787780444523</v>
+        <v>0.04049409579991903</v>
       </c>
       <c r="D20">
-        <v>0.01427022469826022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04199480269546935</v>
+      </c>
+      <c r="E20">
+        <v>0.05656698409948087</v>
+      </c>
+      <c r="F20">
+        <v>-0.08796078430750622</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.007400336578230328</v>
+        <v>-0.00766280393323033</v>
       </c>
       <c r="C21">
-        <v>0.0502370100438468</v>
+        <v>0.04511162738821602</v>
       </c>
       <c r="D21">
-        <v>0.03419482161503558</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.07294785989756353</v>
+      </c>
+      <c r="E21">
+        <v>0.07422121021872928</v>
+      </c>
+      <c r="F21">
+        <v>-0.1332531615586093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0002424585148146926</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0234147129356129</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.03357141801607637</v>
+      </c>
+      <c r="E22">
+        <v>0.01609341243106119</v>
+      </c>
+      <c r="F22">
+        <v>-0.0147259580928948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0001747244153702322</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02354406545597909</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.03326668557937461</v>
+      </c>
+      <c r="E23">
+        <v>0.01638118267541142</v>
+      </c>
+      <c r="F23">
+        <v>-0.01459583728420836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.02932966908104682</v>
+        <v>-0.03213900916573736</v>
       </c>
       <c r="C24">
-        <v>0.0464793533892055</v>
+        <v>0.05354113469308069</v>
       </c>
       <c r="D24">
-        <v>-0.0005551773611699715</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02768506176859168</v>
+      </c>
+      <c r="E24">
+        <v>0.01765605450762921</v>
+      </c>
+      <c r="F24">
+        <v>-0.07634921606362753</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.04605956405553771</v>
+        <v>-0.04241225142405397</v>
       </c>
       <c r="C25">
-        <v>0.05691739781997052</v>
+        <v>0.05860403244320216</v>
       </c>
       <c r="D25">
-        <v>-0.01116816963228002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.02506836303604213</v>
+      </c>
+      <c r="E25">
+        <v>0.01268720895122862</v>
+      </c>
+      <c r="F25">
+        <v>-0.07948098113892768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.01085997646762322</v>
+        <v>-0.01368626733828053</v>
       </c>
       <c r="C26">
-        <v>0.01738166303069262</v>
+        <v>0.01603314436091812</v>
       </c>
       <c r="D26">
-        <v>0.002249783683265692</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.02702934027729293</v>
+      </c>
+      <c r="E26">
+        <v>0.02985452144816584</v>
+      </c>
+      <c r="F26">
+        <v>-0.07378829721582436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1231,156 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.07925414576678998</v>
+        <v>-0.1348200629394567</v>
       </c>
       <c r="C28">
-        <v>-0.2191325488593914</v>
+        <v>-0.2397422677027017</v>
       </c>
       <c r="D28">
-        <v>0.002289529716347998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01575933875866931</v>
+      </c>
+      <c r="E28">
+        <v>0.04884182905118725</v>
+      </c>
+      <c r="F28">
+        <v>-0.05161753085821846</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.008612871010407169</v>
+        <v>-0.006134054182667941</v>
       </c>
       <c r="C29">
-        <v>0.02647195908855634</v>
+        <v>0.02606523573382673</v>
       </c>
       <c r="D29">
-        <v>-0.01759543065399815</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.02399647201798133</v>
+      </c>
+      <c r="E29">
+        <v>0.03050856086168949</v>
+      </c>
+      <c r="F29">
+        <v>-0.08924788561044104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.04928049066526449</v>
+        <v>-0.04040791444280441</v>
       </c>
       <c r="C30">
-        <v>0.05998545939361234</v>
+        <v>0.06486382301527648</v>
       </c>
       <c r="D30">
-        <v>0.03719797073875345</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1080631649458683</v>
+      </c>
+      <c r="E30">
+        <v>0.04142228895397754</v>
+      </c>
+      <c r="F30">
+        <v>-0.1018606180599626</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04259095440368778</v>
+        <v>-0.05392099771642325</v>
       </c>
       <c r="C31">
-        <v>0.03223909189906252</v>
+        <v>0.05308559453092139</v>
       </c>
       <c r="D31">
-        <v>-0.0118092592454363</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.006594019949060578</v>
+      </c>
+      <c r="E31">
+        <v>0.04921956428084776</v>
+      </c>
+      <c r="F31">
+        <v>-0.08049627571243091</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.006926537101676719</v>
+        <v>-0.004433578939825155</v>
       </c>
       <c r="C32">
-        <v>0.04656556630249371</v>
+        <v>0.03390091847406852</v>
       </c>
       <c r="D32">
-        <v>0.01421527076931511</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04979562308243787</v>
+      </c>
+      <c r="E32">
+        <v>0.02389464000020194</v>
+      </c>
+      <c r="F32">
+        <v>-0.07105188391961235</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.02509836937990109</v>
+        <v>-0.02407713572783958</v>
       </c>
       <c r="C33">
-        <v>0.06027908902172861</v>
+        <v>0.05422170739838347</v>
       </c>
       <c r="D33">
-        <v>0.02123429965603529</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.0833358808793047</v>
+      </c>
+      <c r="E33">
+        <v>0.05125795123707513</v>
+      </c>
+      <c r="F33">
+        <v>-0.1278709962569788</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.05036053733678138</v>
+        <v>-0.04065986857998699</v>
       </c>
       <c r="C34">
-        <v>0.05426572666536907</v>
+        <v>0.06421538860211821</v>
       </c>
       <c r="D34">
-        <v>-0.01272207844659325</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.0346243301658847</v>
+      </c>
+      <c r="E34">
+        <v>-0.005606426677406872</v>
+      </c>
+      <c r="F34">
+        <v>-0.07425841022309516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1391,36 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.006817963772508204</v>
+        <v>-0.01380447933494996</v>
       </c>
       <c r="C36">
-        <v>0.01372389411570671</v>
+        <v>0.01186292165625069</v>
       </c>
       <c r="D36">
-        <v>0.002590362175534898</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02969423059608101</v>
+      </c>
+      <c r="E36">
+        <v>0.03650626675166822</v>
+      </c>
+      <c r="F36">
+        <v>-0.08235247765768007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1431,156 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>0.03081030504619419</v>
+        <v>-0.02544974140080992</v>
       </c>
       <c r="C38">
-        <v>0.02909892256437424</v>
+        <v>0.02545965103192848</v>
       </c>
       <c r="D38">
-        <v>2.000716932881718e-05</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02864346030680695</v>
+      </c>
+      <c r="E38">
+        <v>0.03573176587654561</v>
+      </c>
+      <c r="F38">
+        <v>-0.06634200042342327</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.04039362350202889</v>
+        <v>-0.0379795205475527</v>
       </c>
       <c r="C39">
-        <v>0.06944416951612005</v>
+        <v>0.06859351318557888</v>
       </c>
       <c r="D39">
-        <v>0.01986365695125498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.05303223170894791</v>
+      </c>
+      <c r="E39">
+        <v>0.01968188395893736</v>
+      </c>
+      <c r="F39">
+        <v>-0.09029712870866193</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.01744980535393961</v>
+        <v>-0.01651358147872191</v>
       </c>
       <c r="C40">
-        <v>0.02880016624426624</v>
+        <v>0.03692155563446318</v>
       </c>
       <c r="D40">
-        <v>0.0347729776963021</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.04267586991160084</v>
+      </c>
+      <c r="E40">
+        <v>0.07313556821456352</v>
+      </c>
+      <c r="F40">
+        <v>-0.08835184390106993</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.00886791480743695</v>
+        <v>-0.01835049695862735</v>
       </c>
       <c r="C41">
-        <v>0.005967947101557752</v>
+        <v>0.00564324758820123</v>
       </c>
       <c r="D41">
-        <v>-0.0009515416417460298</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01929586331736687</v>
+      </c>
+      <c r="E41">
+        <v>0.03898753466730532</v>
+      </c>
+      <c r="F41">
+        <v>-0.07140524247127565</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
-        <v>0.002241543635282974</v>
+        <v>-0.001298581857821891</v>
       </c>
       <c r="C42">
-        <v>0.005863550510094189</v>
+        <v>0.003115337016922708</v>
       </c>
       <c r="D42">
-        <v>0.007760118815271526</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.000255709470913809</v>
+      </c>
+      <c r="E42">
+        <v>0.007423327881753979</v>
+      </c>
+      <c r="F42">
+        <v>0.006121858118638297</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0298911629705413</v>
+        <v>-0.02992607449754442</v>
       </c>
       <c r="C43">
-        <v>0.02097167966562091</v>
+        <v>0.02053422505056343</v>
       </c>
       <c r="D43">
-        <v>0.006732272692454881</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.04328191349100382</v>
+      </c>
+      <c r="E43">
+        <v>0.04442433949108321</v>
+      </c>
+      <c r="F43">
+        <v>-0.08380646687349963</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.01575545528603766</v>
+        <v>-0.01490559304888666</v>
       </c>
       <c r="C44">
-        <v>0.0585352617889803</v>
+        <v>0.05196022421208227</v>
       </c>
       <c r="D44">
-        <v>0.01606315006190618</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.04207061003234056</v>
+      </c>
+      <c r="E44">
+        <v>0.05835294775810385</v>
+      </c>
+      <c r="F44">
+        <v>-0.08960197958944499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1591,76 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.001046877652499996</v>
+        <v>-0.007476243290850367</v>
       </c>
       <c r="C46">
-        <v>0.02335722630545761</v>
+        <v>0.02506555992912439</v>
       </c>
       <c r="D46">
-        <v>-0.01697784115524796</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.01500054752709981</v>
+      </c>
+      <c r="E46">
+        <v>0.03616287190518595</v>
+      </c>
+      <c r="F46">
+        <v>-0.1032236532946593</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.07732870294367429</v>
+        <v>-0.08618056393784553</v>
       </c>
       <c r="C47">
-        <v>0.07044612473879978</v>
+        <v>0.07975307422557881</v>
       </c>
       <c r="D47">
-        <v>-0.003221622988780924</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01574058084214425</v>
+      </c>
+      <c r="E47">
+        <v>0.0554494565691367</v>
+      </c>
+      <c r="F47">
+        <v>-0.07896892928086528</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.01727802678923212</v>
+        <v>-0.01614978969712086</v>
       </c>
       <c r="C48">
-        <v>0.01279260398928456</v>
+        <v>0.01731619438550165</v>
       </c>
       <c r="D48">
-        <v>-0.004581668841623832</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01968561988070535</v>
+      </c>
+      <c r="E48">
+        <v>0.0473073058534375</v>
+      </c>
+      <c r="F48">
+        <v>-0.09593847535663641</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1671,56 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.08435741517870393</v>
+        <v>-0.07273044609217715</v>
       </c>
       <c r="C50">
-        <v>0.06700146243938013</v>
+        <v>0.06995749149887551</v>
       </c>
       <c r="D50">
-        <v>-0.01327790469667222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.003368350148197936</v>
+      </c>
+      <c r="E50">
+        <v>0.05252907040057725</v>
+      </c>
+      <c r="F50">
+        <v>-0.06779552986627445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>0.008365689590891305</v>
+        <v>-0.01031934599125944</v>
       </c>
       <c r="C51">
-        <v>0.04654334791807174</v>
+        <v>0.03355866955990103</v>
       </c>
       <c r="D51">
-        <v>0.001684786739355956</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04938354889532157</v>
+      </c>
+      <c r="E51">
+        <v>0.02146167127125599</v>
+      </c>
+      <c r="F51">
+        <v>-0.08508566188859479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1731,196 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.09244704570926988</v>
+        <v>-0.09239685521854626</v>
       </c>
       <c r="C53">
-        <v>0.07439373955963693</v>
+        <v>0.0886732952116132</v>
       </c>
       <c r="D53">
-        <v>-0.03504047660655709</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.03870176467117969</v>
+      </c>
+      <c r="E53">
+        <v>0.0545369283785224</v>
+      </c>
+      <c r="F53">
+        <v>-0.08772047560835101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02711599376126224</v>
+        <v>-0.02780942539788685</v>
       </c>
       <c r="C54">
-        <v>0.02012822510159968</v>
+        <v>0.0269175994491936</v>
       </c>
       <c r="D54">
-        <v>0.002029005290872986</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.03295045210084976</v>
+      </c>
+      <c r="E54">
+        <v>0.04106797673558417</v>
+      </c>
+      <c r="F54">
+        <v>-0.09438068703251229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07532261199811394</v>
+        <v>-0.08283161698986458</v>
       </c>
       <c r="C55">
-        <v>0.06628577468063987</v>
+        <v>0.07232631768337612</v>
       </c>
       <c r="D55">
-        <v>-0.0333644371817144</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.04653925273192386</v>
+      </c>
+      <c r="E55">
+        <v>0.04350879759097451</v>
+      </c>
+      <c r="F55">
+        <v>-0.06336212550635929</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1534044512739431</v>
+        <v>-0.1455656672142994</v>
       </c>
       <c r="C56">
-        <v>0.08946223182677243</v>
+        <v>0.1065545927641216</v>
       </c>
       <c r="D56">
-        <v>-0.02813045820181185</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.0503107639081803</v>
+      </c>
+      <c r="E56">
+        <v>0.04933484729470867</v>
+      </c>
+      <c r="F56">
+        <v>-0.05147477327299686</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
-        <v>0.001927064578725055</v>
+        <v>-0.0007490394615450188</v>
       </c>
       <c r="C57">
-        <v>0.004548634951277508</v>
+        <v>0.002492819585138317</v>
       </c>
       <c r="D57">
-        <v>0.01743668383511984</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.01533573972394907</v>
+      </c>
+      <c r="E57">
+        <v>0.008095375209386234</v>
+      </c>
+      <c r="F57">
+        <v>-0.01085259852726611</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.0781492441410913</v>
+        <v>-0.03023591258100743</v>
       </c>
       <c r="C58">
-        <v>0.03146791044030697</v>
+        <v>0.03847694294069427</v>
       </c>
       <c r="D58">
-        <v>0.9632694553069928</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.4930176582022935</v>
+      </c>
+      <c r="E58">
+        <v>0.6745823217638176</v>
+      </c>
+      <c r="F58">
+        <v>0.4688258346666979</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1301711686206861</v>
+        <v>-0.14772442916571</v>
       </c>
       <c r="C59">
-        <v>-0.2054274192148218</v>
+        <v>-0.1859818238668408</v>
       </c>
       <c r="D59">
-        <v>0.02221343670921497</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.03045445700008926</v>
+      </c>
+      <c r="E59">
+        <v>0.02564644235310743</v>
+      </c>
+      <c r="F59">
+        <v>-0.02041519650923645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.3141761025040635</v>
+        <v>-0.278644367852474</v>
       </c>
       <c r="C60">
-        <v>0.08865339470947294</v>
+        <v>0.09824758115596292</v>
       </c>
       <c r="D60">
-        <v>-0.02169847940482826</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.2043616284259173</v>
+      </c>
+      <c r="E60">
+        <v>-0.2847360734977382</v>
+      </c>
+      <c r="F60">
+        <v>0.119214481683834</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.03649209210721995</v>
+        <v>-0.03954661981657712</v>
       </c>
       <c r="C61">
-        <v>0.06242486064014337</v>
+        <v>0.06152352272133839</v>
       </c>
       <c r="D61">
-        <v>0.01028572261225096</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04735694327624954</v>
+      </c>
+      <c r="E61">
+        <v>0.02316190626814982</v>
+      </c>
+      <c r="F61">
+        <v>-0.08114460987688252</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +1931,156 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.01283229670755935</v>
+        <v>-0.01505230193474941</v>
       </c>
       <c r="C63">
-        <v>0.03698022300543054</v>
+        <v>0.03157611293440938</v>
       </c>
       <c r="D63">
-        <v>-0.004444038215169185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02378072790074341</v>
+      </c>
+      <c r="E63">
+        <v>0.03904545586882634</v>
+      </c>
+      <c r="F63">
+        <v>-0.07525708192323823</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.05086351531745292</v>
+        <v>-0.05580574536284844</v>
       </c>
       <c r="C64">
-        <v>0.03130177910456986</v>
+        <v>0.05385490436523287</v>
       </c>
       <c r="D64">
-        <v>-0.009367295137482535</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.008661542099345892</v>
+      </c>
+      <c r="E64">
+        <v>0.02329020405758391</v>
+      </c>
+      <c r="F64">
+        <v>-0.09049134904148416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.09186601540316754</v>
+        <v>-0.06611177785588619</v>
       </c>
       <c r="C65">
-        <v>0.04336659635850996</v>
+        <v>0.03942419866015122</v>
       </c>
       <c r="D65">
-        <v>0.03477198489124318</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.08628571755144555</v>
+      </c>
+      <c r="E65">
+        <v>0.03227591783658931</v>
+      </c>
+      <c r="F65">
+        <v>-0.02432886117713588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.06397370376355134</v>
+        <v>-0.05050732179448073</v>
       </c>
       <c r="C66">
-        <v>0.1038088332548466</v>
+        <v>0.09163373738046186</v>
       </c>
       <c r="D66">
-        <v>0.0247757480670208</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.07968857654589349</v>
+      </c>
+      <c r="E66">
+        <v>0.02159671981479732</v>
+      </c>
+      <c r="F66">
+        <v>-0.09202838231789724</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05501874835373617</v>
+        <v>-0.04806969577436772</v>
       </c>
       <c r="C67">
-        <v>0.03293945116458066</v>
+        <v>0.03142615089180757</v>
       </c>
       <c r="D67">
-        <v>-0.00744468091494959</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.01506501914476572</v>
+      </c>
+      <c r="E67">
+        <v>0.02039884751804744</v>
+      </c>
+      <c r="F67">
+        <v>-0.05269109566728356</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1099811444030812</v>
+        <v>-0.1531700223215565</v>
       </c>
       <c r="C68">
-        <v>-0.2896760780763331</v>
+        <v>-0.2521219319504362</v>
       </c>
       <c r="D68">
-        <v>0.003458492619363761</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01757945538785373</v>
+      </c>
+      <c r="E68">
+        <v>0.04195799440177907</v>
+      </c>
+      <c r="F68">
+        <v>-0.01919081326976942</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0861009051106162</v>
+        <v>-0.08702049341629786</v>
       </c>
       <c r="C69">
-        <v>0.06450467851992216</v>
+        <v>0.08565914638148742</v>
       </c>
       <c r="D69">
-        <v>-0.0314890480576741</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.009067368797203542</v>
+      </c>
+      <c r="E69">
+        <v>0.03195162462557456</v>
+      </c>
+      <c r="F69">
+        <v>-0.09701686485811971</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2091,276 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1157966425151376</v>
+        <v>-0.1451218782683686</v>
       </c>
       <c r="C71">
-        <v>-0.2506494129499011</v>
+        <v>-0.2308447984547633</v>
       </c>
       <c r="D71">
-        <v>0.02001231515350838</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.01510337927650979</v>
+      </c>
+      <c r="E71">
+        <v>0.06073314241256465</v>
+      </c>
+      <c r="F71">
+        <v>-0.05502519094119086</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.0824050406737378</v>
+        <v>-0.09507697265125407</v>
       </c>
       <c r="C72">
-        <v>0.04905985394880269</v>
+        <v>0.05777312191620031</v>
       </c>
       <c r="D72">
-        <v>-0.01874991154957266</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.02076247846143411</v>
+      </c>
+      <c r="E72">
+        <v>0.009923127662461418</v>
+      </c>
+      <c r="F72">
+        <v>-0.08089735286170679</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.4427833210830164</v>
+        <v>-0.3452638425698565</v>
       </c>
       <c r="C73">
-        <v>0.05390213424921456</v>
+        <v>0.0786654939641359</v>
       </c>
       <c r="D73">
-        <v>0.02903477103043959</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.427941066525054</v>
+      </c>
+      <c r="E73">
+        <v>-0.4916080029474178</v>
+      </c>
+      <c r="F73">
+        <v>0.2837120767888216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1204573596714826</v>
+        <v>-0.1117907884478777</v>
       </c>
       <c r="C74">
-        <v>0.1116853019408417</v>
+        <v>0.1008669422694407</v>
       </c>
       <c r="D74">
-        <v>-0.01198823541278473</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.02931329364882229</v>
+      </c>
+      <c r="E74">
+        <v>0.06476135807558762</v>
+      </c>
+      <c r="F74">
+        <v>-0.05764528876068587</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.2641190375447955</v>
+        <v>-0.2577811143474165</v>
       </c>
       <c r="C75">
-        <v>0.1131566430731429</v>
+        <v>0.1381924915200028</v>
       </c>
       <c r="D75">
-        <v>-0.05052777938821106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1279988045072578</v>
+      </c>
+      <c r="E75">
+        <v>0.07828844348865735</v>
+      </c>
+      <c r="F75">
+        <v>-0.02315866864930612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>0.1195465667245993</v>
+        <v>-0.1287912294226483</v>
       </c>
       <c r="C76">
-        <v>0.1006293956771272</v>
+        <v>0.1052645950436456</v>
       </c>
       <c r="D76">
-        <v>-0.03044540402589451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05919239032913653</v>
+      </c>
+      <c r="E76">
+        <v>0.06961171731055132</v>
+      </c>
+      <c r="F76">
+        <v>-0.06754775187751808</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.07799986020037893</v>
+        <v>-0.06202247714487575</v>
       </c>
       <c r="C77">
-        <v>0.05861498691580835</v>
+        <v>0.06717784621393365</v>
       </c>
       <c r="D77">
-        <v>0.04186353566194009</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.06336346747524405</v>
+      </c>
+      <c r="E77">
+        <v>0.0677929126541708</v>
+      </c>
+      <c r="F77">
+        <v>-0.1136060975007535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.04354373646998042</v>
+        <v>-0.04300143695155679</v>
       </c>
       <c r="C78">
-        <v>0.04142244517025963</v>
+        <v>0.05397125078551774</v>
       </c>
       <c r="D78">
-        <v>0.01453571847060505</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.07268686802389507</v>
+      </c>
+      <c r="E78">
+        <v>0.02321212986739121</v>
+      </c>
+      <c r="F78">
+        <v>-0.1034110925281071</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.02114917307934276</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.0379978817475311</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05954102492958986</v>
+      </c>
+      <c r="E79">
+        <v>0.0479415566777429</v>
+      </c>
+      <c r="F79">
+        <v>-0.03465096458759822</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.04627633599333084</v>
+        <v>-0.03400888515506014</v>
       </c>
       <c r="C80">
-        <v>0.05299511381289776</v>
+        <v>0.05370204239821463</v>
       </c>
       <c r="D80">
-        <v>0.02741615731657902</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04731664463409056</v>
+      </c>
+      <c r="E80">
+        <v>0.009137906940458984</v>
+      </c>
+      <c r="F80">
+        <v>-0.03231808453962725</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1450683286519377</v>
+        <v>-0.1404573034713106</v>
       </c>
       <c r="C81">
-        <v>0.07646695051723949</v>
+        <v>0.09793078605386228</v>
       </c>
       <c r="D81">
-        <v>-0.02194233531905191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.09559158687243498</v>
+      </c>
+      <c r="E81">
+        <v>0.08220485224916503</v>
+      </c>
+      <c r="F81">
+        <v>-0.02346353590638115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.06809748789670995</v>
+        <v>-0.1936493497029234</v>
       </c>
       <c r="C82">
-        <v>0.04944910650389738</v>
+        <v>0.1391414522647493</v>
       </c>
       <c r="D82">
-        <v>-0.02912266737290632</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2241641650153473</v>
+      </c>
+      <c r="E82">
+        <v>0.01187200318619185</v>
+      </c>
+      <c r="F82">
+        <v>-0.07833813073386495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.02601044966213925</v>
+        <v>-0.02685396274069496</v>
       </c>
       <c r="C83">
-        <v>0.01832712630213784</v>
+        <v>0.03795350756154512</v>
       </c>
       <c r="D83">
-        <v>0.01669121621096917</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03568759470918671</v>
+      </c>
+      <c r="E83">
+        <v>0.00805710183636925</v>
+      </c>
+      <c r="F83">
+        <v>-0.04991803526638264</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2371,236 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.238100083651062</v>
+        <v>-0.2057784295814628</v>
       </c>
       <c r="C85">
-        <v>0.1088764372012739</v>
+        <v>0.1249270899105835</v>
       </c>
       <c r="D85">
-        <v>-0.1113615570075277</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1063606690448023</v>
+      </c>
+      <c r="E85">
+        <v>0.006355399762816667</v>
+      </c>
+      <c r="F85">
+        <v>0.01735004665736515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.0003539910133624694</v>
+        <v>-0.01143141606204545</v>
       </c>
       <c r="C86">
-        <v>0.02283557284769817</v>
+        <v>0.03044162325231432</v>
       </c>
       <c r="D86">
-        <v>0.01957380162778553</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07275037775319883</v>
+      </c>
+      <c r="E86">
+        <v>0.04452591787659009</v>
+      </c>
+      <c r="F86">
+        <v>-0.1388878815563379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.01686782126886282</v>
+        <v>-0.02033663804552035</v>
       </c>
       <c r="C87">
-        <v>0.01810894759567781</v>
+        <v>0.02084340613059737</v>
       </c>
       <c r="D87">
-        <v>0.09300309408066916</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09271406688416951</v>
+      </c>
+      <c r="E87">
+        <v>0.08624623821883945</v>
+      </c>
+      <c r="F87">
+        <v>-0.09332087436811608</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.1036082970768715</v>
+        <v>-0.09054820737876426</v>
       </c>
       <c r="C88">
-        <v>0.06810765911329444</v>
+        <v>0.06322605611937396</v>
       </c>
       <c r="D88">
-        <v>-0.01300833836907404</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0138927975651309</v>
+      </c>
+      <c r="E88">
+        <v>0.0327111406693723</v>
+      </c>
+      <c r="F88">
+        <v>-0.06876891337853844</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1813007631582199</v>
+        <v>-0.225754519355201</v>
       </c>
       <c r="C89">
-        <v>-0.3809227667447732</v>
+        <v>-0.3813111546017545</v>
       </c>
       <c r="D89">
-        <v>-0.02845306481370447</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01418945960160035</v>
+      </c>
+      <c r="E89">
+        <v>0.03880245542352265</v>
+      </c>
+      <c r="F89">
+        <v>-0.1011561586159467</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.168655583844167</v>
+        <v>-0.2035864197045714</v>
       </c>
       <c r="C90">
-        <v>-0.3483600984962928</v>
+        <v>-0.3163043801893693</v>
       </c>
       <c r="D90">
-        <v>0.002960101590152936</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01138919255371254</v>
+      </c>
+      <c r="E90">
+        <v>0.06509572253181263</v>
+      </c>
+      <c r="F90">
+        <v>-0.04900256922391803</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.2060931865526815</v>
+        <v>-0.1908923537995009</v>
       </c>
       <c r="C91">
-        <v>0.1071572339189292</v>
+        <v>0.1388356067747868</v>
       </c>
       <c r="D91">
-        <v>-0.04803225176723576</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.1027329317220647</v>
+      </c>
+      <c r="E91">
+        <v>0.07307584855032838</v>
+      </c>
+      <c r="F91">
+        <v>-0.04543287427873879</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1619098678451268</v>
+        <v>-0.1848837560590355</v>
       </c>
       <c r="C92">
-        <v>-0.2895866841833902</v>
+        <v>-0.277573037146865</v>
       </c>
       <c r="D92">
-        <v>-0.01069589404933961</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.004763053076267777</v>
+      </c>
+      <c r="E92">
+        <v>0.07027756304466146</v>
+      </c>
+      <c r="F92">
+        <v>-0.06803851602539776</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1962461287771875</v>
+        <v>-0.228221565443764</v>
       </c>
       <c r="C93">
-        <v>-0.3462681918060858</v>
+        <v>-0.3198549726868435</v>
       </c>
       <c r="D93">
-        <v>0.008456460924041561</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.002003098799967921</v>
+      </c>
+      <c r="E93">
+        <v>0.05096675641372806</v>
+      </c>
+      <c r="F93">
+        <v>-0.04415361547902401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.307988127250048</v>
+        <v>-0.3410617476518226</v>
       </c>
       <c r="C94">
-        <v>0.1654051803672622</v>
+        <v>0.1918794627461522</v>
       </c>
       <c r="D94">
-        <v>-0.09499531701890609</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4706750082758843</v>
+      </c>
+      <c r="E94">
+        <v>0.1453973248441355</v>
+      </c>
+      <c r="F94">
+        <v>0.4465262627695261</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.09714580786426232</v>
+        <v>-0.08232485573741297</v>
       </c>
       <c r="C95">
-        <v>0.05979278886602848</v>
+        <v>0.07072652714348211</v>
       </c>
       <c r="D95">
-        <v>0.0255346804925212</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1553248367566827</v>
+      </c>
+      <c r="E95">
+        <v>-0.1312018695863026</v>
+      </c>
+      <c r="F95">
+        <v>-0.1772124758780289</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2611,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2631,36 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2004230504822444</v>
+        <v>-0.1886456657896361</v>
       </c>
       <c r="C98">
-        <v>0.01406493807067791</v>
+        <v>0.04108801344386045</v>
       </c>
       <c r="D98">
-        <v>0.0230393013931749</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1744931303917071</v>
+      </c>
+      <c r="E98">
+        <v>-0.1569631554064722</v>
+      </c>
+      <c r="F98">
+        <v>0.0342959518976688</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2671,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2691,56 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.008332307820145827</v>
+        <v>-0.00601272576089171</v>
       </c>
       <c r="C101">
-        <v>0.02661934795896323</v>
+        <v>0.02581563037635258</v>
       </c>
       <c r="D101">
-        <v>-0.01770679423974499</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.02334070743137458</v>
+      </c>
+      <c r="E101">
+        <v>0.03098044259928976</v>
+      </c>
+      <c r="F101">
+        <v>-0.08875798370478387</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
-        <v>0.1212160438984302</v>
+        <v>-0.1229858272243392</v>
       </c>
       <c r="C102">
-        <v>0.07128781238188951</v>
+        <v>0.1004782918748703</v>
       </c>
       <c r="D102">
-        <v>-0.04224639676560257</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.05082820636381172</v>
+      </c>
+      <c r="E102">
+        <v>-0.007835718013067641</v>
+      </c>
+      <c r="F102">
+        <v>-0.04082623158109688</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
